--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Npy-Npy1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Npy-Npy1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.659013</v>
+        <v>0.09788333333333334</v>
       </c>
       <c r="H2">
-        <v>7.977039</v>
+        <v>0.29365</v>
       </c>
       <c r="I2">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="J2">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.141749</v>
+        <v>5.0231565</v>
       </c>
       <c r="N2">
-        <v>0.283498</v>
+        <v>10.046313</v>
       </c>
       <c r="O2">
-        <v>0.008311773795175947</v>
+        <v>0.1679971994873151</v>
       </c>
       <c r="P2">
-        <v>0.007810267403127276</v>
+        <v>0.1678748287006549</v>
       </c>
       <c r="Q2">
-        <v>0.376912433737</v>
+        <v>0.491683302075</v>
       </c>
       <c r="R2">
-        <v>2.261474602422</v>
+        <v>2.95009981245</v>
       </c>
       <c r="S2">
-        <v>0.003883375505950873</v>
+        <v>0.002977979325588712</v>
       </c>
       <c r="T2">
-        <v>0.003649064793586452</v>
+        <v>0.002975810136615072</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.659013</v>
+        <v>0.09788333333333334</v>
       </c>
       <c r="H3">
-        <v>7.977039</v>
+        <v>0.29365</v>
       </c>
       <c r="I3">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="J3">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.105117</v>
       </c>
       <c r="O3">
-        <v>0.002054591157674269</v>
+        <v>0.001171863523032984</v>
       </c>
       <c r="P3">
-        <v>0.002895935345626882</v>
+        <v>0.001756514889445187</v>
       </c>
       <c r="Q3">
-        <v>0.093169156507</v>
+        <v>0.003429734116666667</v>
       </c>
       <c r="R3">
-        <v>0.838522408563</v>
+        <v>0.03086760705</v>
       </c>
       <c r="S3">
-        <v>0.0009599333635723189</v>
+        <v>2.077287808757359E-05</v>
       </c>
       <c r="T3">
-        <v>0.001353020987475845</v>
+        <v>3.113662038307652E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.659013</v>
+        <v>0.09788333333333334</v>
       </c>
       <c r="H4">
-        <v>7.977039</v>
+        <v>0.29365</v>
       </c>
       <c r="I4">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="J4">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.7221375</v>
+        <v>24.833492</v>
       </c>
       <c r="N4">
-        <v>29.444275</v>
+        <v>49.666984</v>
       </c>
       <c r="O4">
-        <v>0.8632658902812513</v>
+        <v>0.8305449192137742</v>
       </c>
       <c r="P4">
-        <v>0.8111791308623529</v>
+        <v>0.8299399422532593</v>
       </c>
       <c r="Q4">
-        <v>39.14635500028749</v>
+        <v>2.430784975266667</v>
       </c>
       <c r="R4">
-        <v>234.878130001725</v>
+        <v>14.5847098516</v>
       </c>
       <c r="S4">
-        <v>0.4033297459787428</v>
+        <v>0.01472254064912624</v>
       </c>
       <c r="T4">
-        <v>0.3789940926397283</v>
+        <v>0.01471181660797335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.659013</v>
+        <v>0.09788333333333334</v>
       </c>
       <c r="H5">
-        <v>7.977039</v>
+        <v>0.29365</v>
       </c>
       <c r="I5">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="J5">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.104360666666667</v>
+        <v>0.008552000000000001</v>
       </c>
       <c r="N5">
-        <v>6.313082000000001</v>
+        <v>0.025656</v>
       </c>
       <c r="O5">
-        <v>0.1233939558289581</v>
+        <v>0.0002860177758776815</v>
       </c>
       <c r="P5">
-        <v>0.173923126645936</v>
+        <v>0.0004287141566407499</v>
       </c>
       <c r="Q5">
-        <v>5.595522369355334</v>
+        <v>0.0008370982666666667</v>
       </c>
       <c r="R5">
-        <v>50.359701324198</v>
+        <v>0.007533884400000001</v>
       </c>
       <c r="S5">
-        <v>0.05765136028204632</v>
+        <v>5.070054893259779E-06</v>
       </c>
       <c r="T5">
-        <v>0.08125928671533607</v>
+        <v>7.599542724280669E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.659013</v>
+        <v>0.06190133333333334</v>
       </c>
       <c r="H6">
-        <v>7.977039</v>
+        <v>0.185704</v>
       </c>
       <c r="I6">
-        <v>0.4672138103908383</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="J6">
-        <v>0.4672138103908383</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.050715</v>
+        <v>5.0231565</v>
       </c>
       <c r="N6">
-        <v>0.152145</v>
+        <v>10.046313</v>
       </c>
       <c r="O6">
-        <v>0.002973788936940283</v>
+        <v>0.1679971994873151</v>
       </c>
       <c r="P6">
-        <v>0.004191539742956915</v>
+        <v>0.1678748287006549</v>
       </c>
       <c r="Q6">
-        <v>0.134851844295</v>
+        <v>0.310940084892</v>
       </c>
       <c r="R6">
-        <v>1.213666598655</v>
+        <v>1.865640509352</v>
       </c>
       <c r="S6">
-        <v>0.00138939526052599</v>
+        <v>0.001883271488776183</v>
       </c>
       <c r="T6">
-        <v>0.001958345254711535</v>
+        <v>0.00188189969558987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>3.032199333333333</v>
+        <v>0.06190133333333334</v>
       </c>
       <c r="H7">
-        <v>9.096598</v>
+        <v>0.185704</v>
       </c>
       <c r="I7">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="J7">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.141749</v>
+        <v>0.035039</v>
       </c>
       <c r="N7">
-        <v>0.283498</v>
+        <v>0.105117</v>
       </c>
       <c r="O7">
-        <v>0.008311773795175947</v>
+        <v>0.001171863523032984</v>
       </c>
       <c r="P7">
-        <v>0.007810267403127276</v>
+        <v>0.001756514889445187</v>
       </c>
       <c r="Q7">
-        <v>0.4298112233006667</v>
+        <v>0.002168960818666667</v>
       </c>
       <c r="R7">
-        <v>2.578867339804</v>
+        <v>0.019520647368</v>
       </c>
       <c r="S7">
-        <v>0.004428398289225075</v>
+        <v>1.313674971011329E-05</v>
       </c>
       <c r="T7">
-        <v>0.004161202609540825</v>
+        <v>1.969077116165108E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>3.032199333333333</v>
+        <v>0.06190133333333334</v>
       </c>
       <c r="H8">
-        <v>9.096598</v>
+        <v>0.185704</v>
       </c>
       <c r="I8">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="J8">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.035039</v>
+        <v>24.833492</v>
       </c>
       <c r="N8">
-        <v>0.105117</v>
+        <v>49.666984</v>
       </c>
       <c r="O8">
-        <v>0.002054591157674269</v>
+        <v>0.8305449192137742</v>
       </c>
       <c r="P8">
-        <v>0.002895935345626882</v>
+        <v>0.8299399422532593</v>
       </c>
       <c r="Q8">
-        <v>0.1062452324406667</v>
+        <v>1.537226266122667</v>
       </c>
       <c r="R8">
-        <v>0.9562070919660001</v>
+        <v>9.223357596736001</v>
       </c>
       <c r="S8">
-        <v>0.00109465779410195</v>
+        <v>0.009310521671055129</v>
       </c>
       <c r="T8">
-        <v>0.001542914358151038</v>
+        <v>0.009303739796925196</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,75 +962,75 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>3.032199333333333</v>
+        <v>0.06190133333333334</v>
       </c>
       <c r="H9">
-        <v>9.096598</v>
+        <v>0.185704</v>
       </c>
       <c r="I9">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="J9">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>14.7221375</v>
+        <v>0.008552000000000001</v>
       </c>
       <c r="N9">
-        <v>29.444275</v>
+        <v>0.025656</v>
       </c>
       <c r="O9">
-        <v>0.8632658902812513</v>
+        <v>0.0002860177758776815</v>
       </c>
       <c r="P9">
-        <v>0.8111791308623529</v>
+        <v>0.0004287141566407499</v>
       </c>
       <c r="Q9">
-        <v>44.64045551274166</v>
+        <v>0.0005293802026666667</v>
       </c>
       <c r="R9">
-        <v>267.84273307645</v>
+        <v>0.004764421824000001</v>
       </c>
       <c r="S9">
-        <v>0.4599361443025086</v>
+        <v>3.206298225431343E-06</v>
       </c>
       <c r="T9">
-        <v>0.4321850382226247</v>
+        <v>4.805944090140703E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,60 +1039,60 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.032199333333333</v>
+        <v>5.362122666666667</v>
       </c>
       <c r="H10">
-        <v>9.096598</v>
+        <v>16.086368</v>
       </c>
       <c r="I10">
-        <v>0.5327861896091618</v>
+        <v>0.9710635008845373</v>
       </c>
       <c r="J10">
-        <v>0.5327861896091618</v>
+        <v>0.9710635008845373</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.104360666666667</v>
+        <v>5.0231565</v>
       </c>
       <c r="N10">
-        <v>6.313082000000001</v>
+        <v>10.046313</v>
       </c>
       <c r="O10">
-        <v>0.1233939558289581</v>
+        <v>0.1679971994873151</v>
       </c>
       <c r="P10">
-        <v>0.173923126645936</v>
+        <v>0.1678748287006549</v>
       </c>
       <c r="Q10">
-        <v>6.380841010559556</v>
+        <v>26.934781326864</v>
       </c>
       <c r="R10">
-        <v>57.42756909503601</v>
+        <v>161.608687961184</v>
       </c>
       <c r="S10">
-        <v>0.06574259554691182</v>
+        <v>0.1631359486729502</v>
       </c>
       <c r="T10">
-        <v>0.0926638399305999</v>
+        <v>0.1630171188684499</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.032199333333333</v>
+        <v>5.362122666666667</v>
       </c>
       <c r="H11">
-        <v>9.096598</v>
+        <v>16.086368</v>
       </c>
       <c r="I11">
-        <v>0.5327861896091618</v>
+        <v>0.9710635008845373</v>
       </c>
       <c r="J11">
-        <v>0.5327861896091618</v>
+        <v>0.9710635008845373</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.050715</v>
+        <v>0.035039</v>
       </c>
       <c r="N11">
-        <v>0.152145</v>
+        <v>0.105117</v>
       </c>
       <c r="O11">
-        <v>0.002973788936940283</v>
+        <v>0.001171863523032984</v>
       </c>
       <c r="P11">
-        <v>0.004191539742956915</v>
+        <v>0.001756514889445187</v>
       </c>
       <c r="Q11">
-        <v>0.15377798919</v>
+        <v>0.1878834161173334</v>
       </c>
       <c r="R11">
-        <v>1.38400190271</v>
+        <v>1.690950745056</v>
       </c>
       <c r="S11">
-        <v>0.001584393676414293</v>
+        <v>0.001137953895235297</v>
       </c>
       <c r="T11">
-        <v>0.00223319448824538</v>
+        <v>0.001705687497900459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.362122666666667</v>
+      </c>
+      <c r="H12">
+        <v>16.086368</v>
+      </c>
+      <c r="I12">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="J12">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>24.833492</v>
+      </c>
+      <c r="N12">
+        <v>49.666984</v>
+      </c>
+      <c r="O12">
+        <v>0.8305449192137742</v>
+      </c>
+      <c r="P12">
+        <v>0.8299399422532593</v>
+      </c>
+      <c r="Q12">
+        <v>133.1602303456853</v>
+      </c>
+      <c r="R12">
+        <v>798.961382074112</v>
+      </c>
+      <c r="S12">
+        <v>0.8065118568935927</v>
+      </c>
+      <c r="T12">
+        <v>0.8059243858483607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.362122666666667</v>
+      </c>
+      <c r="H13">
+        <v>16.086368</v>
+      </c>
+      <c r="I13">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="J13">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.008552000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.025656</v>
+      </c>
+      <c r="O13">
+        <v>0.0002860177758776815</v>
+      </c>
+      <c r="P13">
+        <v>0.0004287141566407499</v>
+      </c>
+      <c r="Q13">
+        <v>0.04585687304533334</v>
+      </c>
+      <c r="R13">
+        <v>0.412711857408</v>
+      </c>
+      <c r="S13">
+        <v>0.0002777414227589904</v>
+      </c>
+      <c r="T13">
+        <v>0.0004163086698263285</v>
       </c>
     </row>
   </sheetData>
